--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96010</v>
+        <v>33797</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laura Vieira</t>
+          <t>Lívia Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>4659.38</v>
+        <v>8719.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99128</v>
+        <v>93145</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriela Ribeiro</t>
+          <t>Leandro Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>3187.74</v>
+        <v>5733.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7787</v>
+        <v>72382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória da Cruz</t>
+          <t>Srta. Clarice Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>12152.21</v>
+        <v>7965.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8763</v>
+        <v>21015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Vitor da Cruz</t>
+          <t>Thiago Pereira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,31 +577,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>8608.57</v>
+        <v>9997.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79755</v>
+        <v>65564</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eloah Duarte</t>
+          <t>Maria Sophia Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,109 +610,109 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>12023.47</v>
+        <v>5749.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38525</v>
+        <v>65878</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo Costa</t>
+          <t>Dra. Stella Freitas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>12299.25</v>
+        <v>8006.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93421</v>
+        <v>50102</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas da Conceição</t>
+          <t>Matheus Lima</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>9719.65</v>
+        <v>6579.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60472</v>
+        <v>99760</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Carolina Fogaça</t>
+          <t>Vitor Gabriel Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>6090.01</v>
+        <v>6726.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50929</v>
+        <v>89806</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enrico Caldeira</t>
+          <t>Mirella Teixeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>4723.62</v>
+        <v>10990.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69197</v>
+        <v>46888</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Nicole Moreira</t>
+          <t>Augusto da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>6257.75</v>
+        <v>4024.05</v>
       </c>
     </row>
   </sheetData>
